--- a/excels/Bournemouth.xlsx
+++ b/excels/Bournemouth.xlsx
@@ -2773,7 +2773,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1582.223489133541</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2711.712325451571</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2711.712325451571</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2711.712325451571</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>2711.712325451571</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2711.712325451571</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2711.712325451571</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2711.712325451571</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2711.712325451571</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2711.712325451571</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2906.327558269641</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>2583.095217067787</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1896.000568459685</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1896.000568459685</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1896.000568459685</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1896.000568459685</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>2501.640416249883</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>2501.640416249883</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>2501.640416249883</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>2501.640416249883</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>2501.640416249883</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>2501.640416249883</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>2501.640416249883</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>2501.640416249883</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>2501.640416249883</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>2501.640416249883</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>2501.640416249883</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>2501.640416249883</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>2539.205284875871</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>2975.948613635963</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>2975.948613635963</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>2975.948613635963</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>3284.600177814938</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>3112.345820912162</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>2283.44420957049</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>2283.44420957049</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>1841.073123214223</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>5639.074390493952</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>5639.074390493952</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>5639.074390493952</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>5639.074390493952</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>5639.074390493952</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>4747.650831122422</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>5639.074390493952</v>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>5639.074390493952</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>4747.650831122422</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>4747.650831122422</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>5639.074390493952</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>4747.650831122422</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>3206.759501376872</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>6409.734815307898</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>3318.641045394515</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>6409.734815307898</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>6409.734815307898</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>6409.734815307898</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>6409.734815307898</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>6409.734815307898</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>2467.324758993928</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>2467.324758993928</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>2453.151838052546</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>2453.151838052546</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>2467.324758993928</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>2467.324758993928</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>2467.324758993928</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>2467.324758993928</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>5989.056511866832</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>2453.151838052546</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>2453.151838052546</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>9791.682419659735</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>9791.682419659735</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>9791.682419659735</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>9791.682419659735</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>9791.682419659735</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>9791.682419659735</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>9791.682419659735</v>
@@ -4948,7 +4948,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>9791.682419659735</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>9791.682419659735</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>5002.549136390709</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>9791.682419659735</v>
@@ -5064,7 +5064,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>9791.682419659735</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>5002.549136390709</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>4216.867182846933</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>5002.549136390709</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>9791.682419659735</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>9791.682419659735</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>9791.682419659735</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>9791.682419659735</v>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>9791.682419659735</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>9791.682419659735</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>9791.682419659735</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>5002.549136390709</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>9791.682419659735</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>4216.867182846933</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>9791.682419659735</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>4216.867182846933</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>2619.098671767431</v>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>3210.862838344105</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>3372.420169260901</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>3872.202576939882</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>2784.863986895021</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>5639.074390493952</v>
@@ -5702,7 +5702,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>2740.844087088876</v>
